--- a/medicine/Enfance/Frank_Secka/Frank_Secka.xlsx
+++ b/medicine/Enfance/Frank_Secka/Frank_Secka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Secka (né en 1965) est un auteur[1], graphiste[2] et réalisateur français. Il enseigne aussi les arts graphiques et anime des ateliers d’écriture. Il vit actuellement à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Secka (né en 1965) est un auteur, graphiste et réalisateur français. Il enseigne aussi les arts graphiques et anime des ateliers d’écriture. Il vit actuellement à Paris.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Secka est né le 20 septembre 1965 dans le nord de la France. À seize ans, il entre en classes préparatoires au lycée Louis le Grand. Passionné d’images, il se dirige ensuite vers les arts visuels en s’inscrivant à l’atelier Met de Penninghen, puis à l’ESAG, où son diplôme de fin d’études est parrainé par Roman Cieslewicz.
 Il se consacre alors au graphisme pour des clients aussi différents que la Sonacotra, M6, Thierry Mugler, ou Paloma Picasso.  
-S’ensuit une période d’écriture de fictions. Il publie une dizaine de livres pour les enfants, les adultes, les adolescents. Il rencontre à cette occasion l’équipe des éditions du Rouergue, avec laquelle il sera amené à souvent collaborer. Parallèlement, il donne des cours dans plusieurs écoles d’art et conçoit des jeux pédagogiques liés au développement durable[3].
-En 2003, il a réalisé une série d’animation pour Canal +,Turkish Delight[4]. Il s’est occupé du graphisme d’un certain nombre de collections et de beaux livres dans le monde de l’édition. 
-En 2011, Il a réalisé un pop up érotique, Sade-up[5], son premier livre d’images[6], autour de l'univers de Sade[7].
-Il anime des ateliers d'écriture à l’Aleph Ecriture[8] ou dans le cadre de la MEL. Il donne actuellement des cours d’arts graphiques à l’EPSAA[9] et à l’ECV. Il s’occupe, depuis son ouverture, du graphisme des éditions de la Philharmonie de Paris[10]. 
+S’ensuit une période d’écriture de fictions. Il publie une dizaine de livres pour les enfants, les adultes, les adolescents. Il rencontre à cette occasion l’équipe des éditions du Rouergue, avec laquelle il sera amené à souvent collaborer. Parallèlement, il donne des cours dans plusieurs écoles d’art et conçoit des jeux pédagogiques liés au développement durable.
+En 2003, il a réalisé une série d’animation pour Canal +,Turkish Delight. Il s’est occupé du graphisme d’un certain nombre de collections et de beaux livres dans le monde de l’édition. 
+En 2011, Il a réalisé un pop up érotique, Sade-up, son premier livre d’images, autour de l'univers de Sade.
+Il anime des ateliers d'écriture à l’Aleph Ecriture ou dans le cadre de la MEL. Il donne actuellement des cours d’arts graphiques à l’EPSAA et à l’ECV. Il s’occupe, depuis son ouverture, du graphisme des éditions de la Philharmonie de Paris. 
 </t>
         </is>
       </c>
@@ -549,25 +563,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres d’images
-Monet, ou la véritable histoire des Nymphéas (dessins de Vincent Gravé), Glénat 2016[11].
-Lignes de chances (texte d’Arnaud Ryckner, ouvrage initié par Van Cleef &amp; Arpels), Rouergue 2012[12].
-Sade up (ingénierie papier de Philippe Huger, préface de Michel Surya), Rouergue 2011.
-Romans
-Chbik (recueil Vingt ans pour plus tard, à la suite d'une résidence d’écriture à Tunis), Elyzad 2009[13].
-Le Garçon modèle Rouergue, collection La brune, 2003.
-Romans jeunesse
-Le Verrou (collectif Des filles et des garçons, au bénéfice de Ni putes ni soumises), éditions Thierry Magnier 2003.
+          <t>Livres d’images</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Monet, ou la véritable histoire des Nymphéas (dessins de Vincent Gravé), Glénat 2016.
+Lignes de chances (texte d’Arnaud Ryckner, ouvrage initié par Van Cleef &amp; Arpels), Rouergue 2012.
+Sade up (ingénierie papier de Philippe Huger, préface de Michel Surya), Rouergue 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_Secka</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Secka</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chbik (recueil Vingt ans pour plus tard, à la suite d'une résidence d’écriture à Tunis), Elyzad 2009.
+Le Garçon modèle Rouergue, collection La brune, 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_Secka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Secka</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Verrou (collectif Des filles et des garçons, au bénéfice de Ni putes ni soumises), éditions Thierry Magnier 2003.
 À-pic, éditions Thierry Magnier 2002.
 Les Dugentil-Leboeuf (illustrations de Marcelino Truong), Pocket junior 2000.
-La Petite Blück (illustrations de Marcelino Truong), Pocket junior 1999.
-Contes jeunesse
-Koi (illustrations de Julie Mercier), Rouergue, collection Zigzag, 2006.
-La Ferme hallucinante (illustrations de Claire Franek), Rouergue, collection Zigzag, 2003.
-Album jeunesse
-Souviens-toi (illustrations de Pierre Piech), Rouergue, collection Varia, 2006.
-Audiovisuel
-Turkish Delights (série d’animation coréalisée avec Jean Lecointre et Fabien Caux-Lahalle), So What Now &amp; Canal+ 2003.
+La Petite Blück (illustrations de Marcelino Truong), Pocket junior 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_Secka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Secka</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contes jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Koi (illustrations de Julie Mercier), Rouergue, collection Zigzag, 2006.
+La Ferme hallucinante (illustrations de Claire Franek), Rouergue, collection Zigzag, 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_Secka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Secka</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Album jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Souviens-toi (illustrations de Pierre Piech), Rouergue, collection Varia, 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frank_Secka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Secka</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Audiovisuel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Turkish Delights (série d’animation coréalisée avec Jean Lecointre et Fabien Caux-Lahalle), So What Now &amp; Canal+ 2003.
 DCCK 94-01 (avec Charles et Émile Berling, musique de Xavier Berthelot), les films du Requin 1994.
 Un film avant lundi, les films du Requin 1993.</t>
         </is>
